--- a/parametros_ARIMA_optimos.xlsx
+++ b/parametros_ARIMA_optimos.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(1, 1, 1)</t>
+          <t>(3, 1, 1)</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0, 1, 3)</t>
+          <t>(1, 1, 1)</t>
         </is>
       </c>
     </row>
